--- a/Calculs/DataBase_template_results annoté JM.xlsx
+++ b/Calculs/DataBase_template_results annoté JM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355A7AE7-C48F-4811-82F0-8ABE6F780F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931F0C8C-9341-4EB9-A31A-B618D94C299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19150" yWindow="180" windowWidth="19200" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calculs" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>File</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>File A - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pb equilibre</t>
   </si>
   <si>
     <t>ok</t>
@@ -222,18 +219,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -269,14 +260,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,12 +571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
     <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.7265625" bestFit="1" customWidth="1"/>
@@ -594,7 +585,8 @@
     <col min="28" max="28" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -815,7 +807,7 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2">
         <v>49.92</v>
       </c>
       <c r="AH2" s="2">
@@ -824,10 +816,10 @@
       <c r="AI2" s="2">
         <v>87.007089877328099</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2">
         <v>5.4996908455352269</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AK2">
         <v>-352.07623631037438</v>
       </c>
       <c r="AL2">
@@ -836,8 +828,8 @@
       <c r="AM2">
         <v>-364.89370162480782</v>
       </c>
-      <c r="AN2" s="4" t="s">
-        <v>55</v>
+      <c r="AN2" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
@@ -937,7 +929,7 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3">
         <v>137.5</v>
       </c>
       <c r="AH3" s="2">
@@ -946,10 +938,10 @@
       <c r="AI3" s="2">
         <v>125.1339888675334</v>
       </c>
-      <c r="AJ3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="2">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
@@ -958,8 +950,8 @@
       <c r="AM3">
         <v>0</v>
       </c>
-      <c r="AN3" s="4" t="s">
-        <v>55</v>
+      <c r="AN3" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
@@ -1059,7 +1051,7 @@
       <c r="AF4">
         <v>0</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4">
         <v>52.48</v>
       </c>
       <c r="AH4" s="2">
@@ -1068,10 +1060,10 @@
       <c r="AI4" s="2">
         <v>99.676828491135922</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4">
         <v>6.0139999328024336</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4">
         <v>-298.26536518567627</v>
       </c>
       <c r="AL4">
@@ -1080,8 +1072,8 @@
       <c r="AM4">
         <v>-319.51614874818881</v>
       </c>
-      <c r="AN4" s="4" t="s">
-        <v>55</v>
+      <c r="AN4" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
@@ -1181,19 +1173,19 @@
       <c r="AF5">
         <v>0</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5">
         <v>99.000000000000014</v>
       </c>
       <c r="AH5" s="2">
         <v>89.006595086179274</v>
       </c>
       <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2">
+        <v>89.006595086179274</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
@@ -1303,7 +1295,7 @@
       <c r="AF6">
         <v>0</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6">
         <v>51.2</v>
       </c>
       <c r="AH6" s="2">
@@ -1312,10 +1304,10 @@
       <c r="AI6" s="2">
         <v>120.87399501071729</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6">
         <v>5.2145535026028762</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6">
         <v>-308.73815496290592</v>
       </c>
       <c r="AL6">
@@ -1422,7 +1414,7 @@
       <c r="AF7">
         <v>0</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7">
         <v>165</v>
       </c>
       <c r="AH7" s="2">
@@ -1431,10 +1423,10 @@
       <c r="AI7" s="2">
         <v>140.70313127378969</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
@@ -1541,7 +1533,7 @@
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8">
         <v>89.600000000000009</v>
       </c>
       <c r="AH8" s="2">
@@ -1550,10 +1542,10 @@
       <c r="AI8" s="2">
         <v>159.59855307589541</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8">
         <v>8.807618057789405</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AK8">
         <v>-407.59258835473912</v>
       </c>
       <c r="AL8">
@@ -1660,7 +1652,7 @@
       <c r="AF9">
         <v>0</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9">
         <v>121</v>
       </c>
       <c r="AH9" s="2">
@@ -1669,10 +1661,10 @@
       <c r="AI9" s="2">
         <v>153.93972678428781</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AJ9">
         <v>12.66891043328229</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AK9">
         <v>-435.39568741745398</v>
       </c>
       <c r="AL9">
@@ -1779,7 +1771,7 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AG10">
         <v>9.984</v>
       </c>
       <c r="AH10" s="2">
@@ -1788,10 +1780,10 @@
       <c r="AI10" s="2">
         <v>54.762740424349367</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AJ10">
         <v>1.715917820668678</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AK10">
         <v>-132.78450098253589</v>
       </c>
       <c r="AL10">
@@ -1898,26 +1890,26 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AG11">
         <v>33</v>
       </c>
       <c r="AH11" s="2">
         <v>103.37982574480461</v>
       </c>
       <c r="AI11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="2">
+        <v>103.37982574480461</v>
+      </c>
+      <c r="AJ11">
         <v>3.9427820985975401</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AK11">
         <v>-150.6876485289022</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-1.144639113448368E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.35">
@@ -2017,26 +2009,26 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AG12">
         <v>11.52</v>
       </c>
       <c r="AH12" s="2">
         <v>25.257071304347711</v>
       </c>
       <c r="AI12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="2">
+        <v>25.257071304347711</v>
+      </c>
+      <c r="AJ12">
         <v>2.3827409259454981</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AK12">
         <v>-218.67533400292169</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-1.3481156207963461E-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.35">
@@ -2136,7 +2128,7 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AG13">
         <v>121</v>
       </c>
       <c r="AH13" s="2">
@@ -2145,10 +2137,10 @@
       <c r="AI13" s="2">
         <v>153.93972678428781</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AJ13">
         <v>12.66891043328229</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AK13">
         <v>-435.39568741745398</v>
       </c>
       <c r="AL13">
@@ -2255,7 +2247,7 @@
       <c r="AF14">
         <v>0</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AG14">
         <v>72.960000000000008</v>
       </c>
       <c r="AH14" s="2">
@@ -2264,10 +2256,10 @@
       <c r="AI14" s="2">
         <v>107.9564542421578</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14">
         <v>9.1771531092142435</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AK14">
         <v>-435.43267839491648</v>
       </c>
       <c r="AL14">
@@ -2374,7 +2366,7 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15">
         <v>159.5</v>
       </c>
       <c r="AH15" s="2">
@@ -2383,10 +2375,10 @@
       <c r="AI15" s="2">
         <v>199.10852479651081</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ15">
         <v>13.34693922504519</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AK15">
         <v>-434.93506243913089</v>
       </c>
       <c r="AL15">
@@ -2493,7 +2485,7 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AG16">
         <v>57.6</v>
       </c>
       <c r="AH16" s="2">
@@ -2502,10 +2494,10 @@
       <c r="AI16" s="2">
         <v>87.007089877328099</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AJ16">
         <v>6.2805693303216508</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AK16">
         <v>-406.43183499035291</v>
       </c>
       <c r="AL16">
@@ -2612,7 +2604,7 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17">
         <v>47.36</v>
       </c>
       <c r="AH17" s="2">
@@ -2621,10 +2613,10 @@
       <c r="AI17" s="2">
         <v>87.007089877328099</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AJ17">
         <v>5.2353053349927334</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AK17">
         <v>-333.96979735172539</v>
       </c>
       <c r="AL17">
@@ -2731,7 +2723,7 @@
       <c r="AF18">
         <v>0</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AG18">
         <v>165</v>
       </c>
       <c r="AH18" s="2">
@@ -2740,10 +2732,10 @@
       <c r="AI18" s="2">
         <v>115.1806044697896</v>
       </c>
-      <c r="AJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2">
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
@@ -2850,7 +2842,7 @@
       <c r="AF19">
         <v>0</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19">
         <v>96</v>
       </c>
       <c r="AH19" s="2">
@@ -2859,10 +2851,10 @@
       <c r="AI19" s="2">
         <v>151.3768670716909</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ19">
         <v>9.0942220015236863</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AK19">
         <v>-389.6174552601787</v>
       </c>
       <c r="AL19">
@@ -2969,7 +2961,7 @@
       <c r="AF20">
         <v>0</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20">
         <v>121</v>
       </c>
       <c r="AH20" s="2">
@@ -2978,10 +2970,10 @@
       <c r="AI20" s="2">
         <v>168.0345242760564</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AJ20">
         <v>14.20166512638405</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AK20">
         <v>-435.07936288957842</v>
       </c>
       <c r="AL20">
@@ -3088,7 +3080,7 @@
       <c r="AF21">
         <v>0</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21">
         <v>3.5840000000000001</v>
       </c>
       <c r="AH21" s="2">
@@ -3097,10 +3089,10 @@
       <c r="AI21" s="2">
         <v>54.762740424349367</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ21">
         <v>0.62249190265730547</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK21">
         <v>-47.653727529606392</v>
       </c>
       <c r="AL21">
@@ -3207,7 +3199,7 @@
       <c r="AF22">
         <v>0</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AG22">
         <v>33</v>
       </c>
       <c r="AH22" s="2">
@@ -3216,10 +3208,10 @@
       <c r="AI22" s="2">
         <v>197.26801502742089</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AJ22">
         <v>3.3590465750405261</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AK22">
         <v>-122.125348176831</v>
       </c>
       <c r="AL22">
@@ -3326,7 +3318,7 @@
       <c r="AF23">
         <v>0</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AG23">
         <v>9.7279999999999998</v>
       </c>
       <c r="AH23" s="2">
@@ -3335,10 +3327,10 @@
       <c r="AI23" s="2">
         <v>54.762740424349367</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AJ23">
         <v>1.672634943753077</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AK23">
         <v>-129.37839773797279</v>
       </c>
       <c r="AL23">
@@ -3445,7 +3437,7 @@
       <c r="AF24">
         <v>0</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AG24">
         <v>121</v>
       </c>
       <c r="AH24" s="2">
@@ -3454,10 +3446,10 @@
       <c r="AI24" s="2">
         <v>118.7326334043527</v>
       </c>
-      <c r="AJ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="2">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
@@ -3564,7 +3556,7 @@
       <c r="AF25">
         <v>0</v>
       </c>
-      <c r="AG25" s="2">
+      <c r="AG25">
         <v>96</v>
       </c>
       <c r="AH25" s="2">
@@ -3573,10 +3565,10 @@
       <c r="AI25" s="2">
         <v>188.89109758197679</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ25">
         <v>8.9872341364156387</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AK25">
         <v>-396.65805142821472</v>
       </c>
       <c r="AL25">
@@ -3683,7 +3675,7 @@
       <c r="AF26">
         <v>0</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26">
         <v>159.5</v>
       </c>
       <c r="AH26" s="2">
@@ -3692,10 +3684,10 @@
       <c r="AI26" s="2">
         <v>186.59516988937909</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AJ26">
         <v>14.89478858771068</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AK26">
         <v>-435.34510155984327</v>
       </c>
       <c r="AL26">
@@ -3802,7 +3794,7 @@
       <c r="AF27">
         <v>0</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AG27">
         <v>47.36</v>
       </c>
       <c r="AH27" s="2">
@@ -3811,10 +3803,10 @@
       <c r="AI27" s="2">
         <v>87.007089877328099</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AJ27">
         <v>5.2353053349927334</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AK27">
         <v>-333.96979735172539</v>
       </c>
       <c r="AL27">
